--- a/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
+++ b/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -131,6 +131,54 @@
   </si>
   <si>
     <t xml:space="preserve">ING004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti Marinara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Seaside Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spaghettitomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marinara.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yak Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yak Milk, Best Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yak, milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING006</t>
   </si>
 </sst>
 </file>
@@ -227,27 +275,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,6 +512,123 @@
       </c>
       <c r="O5" s="0" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
+++ b/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">Picture Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Step Up</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingredient</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t xml:space="preserve">ING001</t>
   </si>
   <si>
+    <t xml:space="preserve">tomato, heirloom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heirloom Tomato</t>
   </si>
   <si>
@@ -94,15 +100,15 @@
     <t xml:space="preserve">Overpowering Flavour</t>
   </si>
   <si>
-    <t xml:space="preserve">tomato, heirloom</t>
-  </si>
-  <si>
     <t xml:space="preserve">HeirloomTomato.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">ING002</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spaghetti</t>
   </si>
   <si>
@@ -121,15 +127,15 @@
     <t xml:space="preserve">ING003</t>
   </si>
   <si>
+    <t xml:space="preserve">spaghetti, moms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mom's Spaghetti</t>
   </si>
   <si>
     <t xml:space="preserve">Always Ready, Mom's Spaghetti</t>
   </si>
   <si>
-    <t xml:space="preserve">spaghetti, moms</t>
-  </si>
-  <si>
     <t xml:space="preserve">ING004</t>
   </si>
   <si>
@@ -142,7 +148,7 @@
     <t xml:space="preserve">A Seaside Classic</t>
   </si>
   <si>
-    <t xml:space="preserve">spaghettitomato</t>
+    <t xml:space="preserve">spaghetti;tomato</t>
   </si>
   <si>
     <t xml:space="preserve">Marinara.jpg</t>
@@ -275,26 +281,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.5612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1887755102041"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,16 +352,19 @@
       <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
@@ -373,27 +385,30 @@
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -414,30 +429,33 @@
         <v>3</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -458,30 +476,33 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -502,27 +523,30 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -543,21 +567,24 @@
         <v>2</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -578,27 +605,30 @@
         <v>1</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -619,16 +649,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
+++ b/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="565">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -157,34 +157,1591 @@
     <t xml:space="preserve">MEA001</t>
   </si>
   <si>
-    <t xml:space="preserve">Salmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon.jpg</t>
+    <t xml:space="preserve">Parmigiano Reggiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“...there was a mountain made entirely of grated Parmesan cheese, on which lived people who did nothing but make macaroni and ravioli and cook them in capon broth”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parmesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmesan.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">ING005</t>
   </si>
   <si>
-    <t xml:space="preserve">Yak Milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yak Milk, Best Milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yak, milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milk.jpg</t>
+    <t xml:space="preserve">Olive Oil</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">“Extra Virgin” </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tee hee. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This is an optional addition to most meals.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil, olive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OliveOil.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">ING006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no such thing as too much garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GarlicClove.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic, pungent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pungent Garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay, perhaps there is!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved by All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onion.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Butter Y’all” - Paula Deen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butter.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basil.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular Chicken Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg, free range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Range Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Range, Cruelty Free. This Egg doesn’t just taste good. IT IS GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippie.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage, Rosemary and Thyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavour Enhancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parsley.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, Yeah Baby!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedPepper.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habanero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habanero Flakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH YEAH BABY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habanero.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahem, It’s for COOKING with. Got it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where’s the beef?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beef.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Don’t Like the way you said “Black”…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackPepper.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important, yet… Unseen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flour.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozzarella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“A Lovely Evening of New Idioms and Fresh Mozzarella”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mozzarella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozzarella.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mozzarella, buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozzarella Bufala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“The good stuff”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...and Waffles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arborio Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for a Risotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arborio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arborio.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carnaroli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnaroli Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent for a Risotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnaroli.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We conquered continents for this stuff!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Ricotta and Honey, eat them often”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricotta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can also be used as a Pizza Crust!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peccorino Romano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peccorino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peccorino.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadly, not those kind of mushrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cremini.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linguine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs well with oil based sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linguine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linguine.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine Nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fun Fact: Not actual tree nuts`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Part Oil, One Part Vinegar 5 Parts Yum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinaigrette.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Em, Scrape Em, Lem em!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannelini Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beans.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cod.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caper.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchovies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“If I was potato chips I could go more places”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchovy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchovy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian Sausage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Party. A Real Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sausage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sausage.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagne.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bell Peppers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BellPepper.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fettucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs well with rich, creamy sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fettucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fettucine.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauanciale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guanciale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanciale.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternate Use: Sell to middle schoolers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oregano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregano.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread Crumbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crumbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crumbs.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why we don’t call this… Nightshade…. Beyond me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eggplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggplant.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good in Biscotti!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almond.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelatin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOBBLE WOBBLE WOBBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelatin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelatin.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe, unoffensive, white.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The original PED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spinach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinach.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shallots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sha-la-la-la-la-lots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shallots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shallots.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorgonzola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sounds like Gonzaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gorgonzola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorgonzola.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be good for a risotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squash.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asparagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asparagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asparagus.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the creators of olive oil…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olive.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnocchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft, Pillowy, Delicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnocchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnocchi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The holy dessert hailing from Sicily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;egg;flour;ricotta;sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannoli.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biscotti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs well with Tea and Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almond;egg;flour;pinenuts;sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biscotti.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panna Cotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cream;gelatin;sugar;vanilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PannaCotta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aglio e Olio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deceptively Simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;oil;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AglioEOlio.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;linguine;oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;oil;redpepper;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;linguine;oil;redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insalata Caprese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtly Patriotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;mozzarella;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprese.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;mozzarella;tomato;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insalata Caprese con Pesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True to the theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;lemon;mozzarella;oil;parmesan;pinenuts;tomato;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapreseconPesto.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruschetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refreshing. I Guarantee It!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruschetta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;mozzarella;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;mozzarella;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;beans;bread;garlic;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;beans;bread;garlic;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;beans;bread;garlic;mozzarella;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;beans;bread;garlic;mozzarella;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruschette Guanciale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who says spice can’t also cool you down?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;guanciale;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BruschettaGuanciale.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;guanciale;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;guanciale;mozzarella;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;guanciale;mozzarella;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti Carbonara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich, meaty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;egg;parmesan;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonara.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;blackpepper;egg;parmesan;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;blackpepper;egg;oil;parmesan;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;egg;parmesan;oil;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;egg;peccorino;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;blackpepper;egg;peccorino;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;blackpepper;egg;oil;peccorino;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;egg;peccorino;oil;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baccala alla Vesuviana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caper;cod;onion;redpepper;tomatoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaccalaVesu.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caper;cod;oil;onion;redpepper;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caper;cod;onion;parsley;redpepper;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caper;cod;oil;onion;parsley;redpepper;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baccala alla Vicentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchovy;cod;cream;flour;onion;parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaccalaVicentina.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchovy;cod;cream;flour;oil;onion;parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken Scarpeliello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken;onion;stock;sugar;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChickenScarpel.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;egg;lasagne;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LasagneCook.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg;lasagne;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg;lasagne;mushroom;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fettucine Alfredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fun Fact: This picture is of a vegan fettucine alfredo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;cream;fettucine;parmesan;parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;cream;fettucine;mushroom;parmesan;parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;chicken;cream;fettucine;parmesan;parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parmesan;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mozzarella;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;mushroom;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;mozzarella;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;parmesan;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mozzarella;parmesan;;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onion;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linguine Pesto Genoese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;linguine;oil;parmesan;pinenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PestoLinguine.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;linguine;oil;parmesan;peccorino;pinenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;linguine;oil;peccorino;pinenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;chicken;garlic;linguine;oil;parmesan;pinenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;chicken;garlic;linguine;oil;parmesan;peccorino;pinenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;chicken;garlic;linguine;oil;peccorino;pinenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti Alla Gricia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guanciale;pecorino;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gricia.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggplant Rollatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg;eggplant;mozzarella;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollatini.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg;eggplant;mozzarella;oil;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg;eggplant;mozzarella;oil;parmesan;parsley;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg;eggplant;mozzarella;oil;parsley;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushroom Risotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;mushrooms;onion;parmesan;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MushroomRisotto.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;mushrooms;onion;parmesan;parsley;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;mushrooms;onion;parmesan;pepper;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;mushrooms;onion;parmesan;parsley;pepper;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risotto alla Gorgonzola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;gorgonzola;parmesan;rice;shallots;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RisottoGorgonzola.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackpepper;butter;gorgonzola;parmesan;rice;shallots;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risotto alla Milanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;onion;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RisottoMilan.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;onion;parmesan;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby’s First Risotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BabyRiso.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butter;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onion;rice;stock;wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fettucine con La Ricotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fettucine;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FettucineRicotta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;fettucine;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fettucine;garlic;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fettucine;oil;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;fettucine;oil;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fettucine;garlic;oil;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;fettucine;garlic;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;fettucine;garlic;oil;parmesan;ricotta;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagne agli Asparagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asparagus;butter;cream;flour;lasagne;parmesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LasagneAspar.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asparagus;cream;flour;lasagne;parmesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquacotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquacotta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;oil;onion;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquacotta con Funghi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;egg;mushroom;parmesan;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcquacottaFunghi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;egg;mushroom;oil;parmesan;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti alla Puttanesca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caper;olive;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puttanesca.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchovy;caper;olive;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;caper;olive;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caper;olive;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchovy;basil;caper;olive;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchovy;caper;olive;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;caper;olive;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anchovy;basil;caper;olive;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti Cacio e Pepe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackpepper;oil;parmesan;peccorino;spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacioePepe.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linguine Cacio e Pepe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackpepper;linguine;oil;parmesan;peccorino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amatriciana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;oil;parmesan;parsley;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amatriciana.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;parmesan;parsley;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;oil;parsley;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;oil;parmesan;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;parmesan;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;parsley;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;oil;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;garlic;guanciale;redpepper;spaghetti;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bistecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who doesn’t love a good steak?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;beef;garlic;parsley;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bistecca.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;garlic;parsley;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;garlic;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagliatta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Florentine Classic!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;garlic;lemon;oil;parmesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagliatta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;garlic;lemon;parmesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnocchi con Spinaci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackpepper;garlic;gnocchi;oil;onion;spinach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GnocchiSpinach.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackpepper;garlic;gnocchi;onion;spinach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;gnocchi;oil;onion;spinach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;gnocchi;onion;spinach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotoletta alla Milanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;butter;crumbs;egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotoletta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panzanella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;onion;tomato;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panzanella.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;tomato;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;onion;tomato;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread;tomato;vinaigrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken with Canellini and Tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beans;chicken;oil;redpepper;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanneliniChicken.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beans;chicken;redpepper;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beans;chicken;oil;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beans;chicken;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Seaside Linguine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;linguine;oil;parsley;redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeasideLinguine.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;linguine;oil;parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;linguine;parsley;redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garlic;linguine;parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggplant Parmesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crumbs;egg;eggplant;flour;mozzarella;oil;parmesan;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EggplantParm.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crumbs;egg;eggplant;flour;mozzarella;parmesan;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken Parmesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken;crumbs;egg;flour;mozzarella;oil;parmesan;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChickenParm.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken;crumbs;egg;flour;mozzarella;parmesan;tomato</t>
   </si>
 </sst>
 </file>
@@ -194,7 +1751,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -215,6 +1772,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,8 +1836,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,29 +1874,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M108" activeCellId="0" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.5612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.1887755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,49 +2178,49 @@
       <c r="B7" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -637,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
@@ -646,22 +2238,7435 @@
         <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="N90" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O90" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="N91" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O91" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O92" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="O93" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O95" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O97" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="M104" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="M105" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="M106" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="N106" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="O106" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="M107" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O107" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="M108" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="N108" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O108" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="M109" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="N109" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O109" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="M110" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="N110" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O110" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="M111" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="N111" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O111" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="M112" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="N112" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="M113" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="N113" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O113" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="M114" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="N114" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="M115" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="N115" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="M116" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="N116" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="M117" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="N117" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="N118" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="O118" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="N119" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="N120" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="O120" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="N121" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="O121" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="N123" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" s="1"/>
+      <c r="M124" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" s="3"/>
+      <c r="M125" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="O125" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" s="3"/>
+      <c r="M126" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="O126" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" s="3"/>
+      <c r="M127" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" s="3"/>
+      <c r="M128" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="O128" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" s="1"/>
+      <c r="M129" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="N129" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="O129" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" s="1"/>
+      <c r="M130" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="N130" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="O130" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" s="1"/>
+      <c r="M131" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="N131" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="O131" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="M132" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="N132" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="O132" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" s="1"/>
+      <c r="M133" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="N133" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="O133" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1"/>
+      <c r="M134" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="N134" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="O134" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M135" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="N135" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="O135" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" s="1"/>
+      <c r="M136" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="N136" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="O136" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" s="3"/>
+      <c r="M137" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="N137" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="O137" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" s="3"/>
+      <c r="M138" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="N138" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="O138" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" s="3"/>
+      <c r="M139" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="N139" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="O139" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" s="3"/>
+      <c r="M140" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="N140" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="O140" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" s="1"/>
+      <c r="M141" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="N141" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O141" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" s="1"/>
+      <c r="M142" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="N142" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O142" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" s="1"/>
+      <c r="M143" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="N143" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O143" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" s="1"/>
+      <c r="M144" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="N144" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O144" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" s="1"/>
+      <c r="M145" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O145" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" s="1"/>
+      <c r="M146" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="N146" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O146" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" s="1"/>
+      <c r="M147" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="N147" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O147" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" s="1"/>
+      <c r="M148" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="N148" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="O148" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" s="4"/>
+      <c r="M149" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="N149" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="O149" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K150" s="4"/>
+      <c r="M150" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="N150" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="O150" s="0" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" s="4"/>
+      <c r="M151" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="N151" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="O151" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" s="4"/>
+      <c r="M152" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="N152" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="O152" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="N153" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="O153" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" s="4"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="N154" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="O154" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K155" s="4"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="N155" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O155" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K156" s="4"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="N156" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O156" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" s="4"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N157" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O157" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" s="4"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="N158" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O158" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" s="4"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="N159" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O159" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" s="4"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="N160" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O160" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" s="4"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="N161" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O161" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K162" s="4"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="N162" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="O162" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" s="4"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="N163" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="O163" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1"/>
+      <c r="M164" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="N164" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="O164" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" s="1"/>
+      <c r="M165" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="N165" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O165" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" s="1"/>
+      <c r="M166" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="N166" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O166" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" s="1"/>
+      <c r="M167" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="N167" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O167" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" s="1"/>
+      <c r="M168" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="N168" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O168" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L169" s="1"/>
+      <c r="M169" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="N169" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O169" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" s="1"/>
+      <c r="M170" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="N170" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O170" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" s="1"/>
+      <c r="M171" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="N171" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O171" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" s="1"/>
+      <c r="M172" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="N172" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O172" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M173" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="N173" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="O173" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M174" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="N174" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="O174" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M175" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="N175" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="O175" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="N176" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="O176" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M177" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="N177" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="O177" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M178" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="N178" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="O178" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="N179" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O179" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="N180" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O180" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="N181" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O181" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="N182" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O182" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" s="1"/>
+      <c r="M183" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="N183" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="O183" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" s="1"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="N184" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O184" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" s="1"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="N185" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O185" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" s="1"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="N186" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O186" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" s="1"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="N187" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O187" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="N188" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="O188" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="N189" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="O189" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="N190" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="O190" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="N191" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="O191" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="N192" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="O192" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="N193" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="O193" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="N194" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="O194" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="N195" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="O195" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="N196" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="O196" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="N197" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="O197" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" s="1"/>
+      <c r="M198" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="N198" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="O198" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" s="1"/>
+      <c r="M199" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="N199" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="O199" s="0" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
+++ b/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="566">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -1006,7 +1006,7 @@
     <t xml:space="preserve">Panna Cotta</t>
   </si>
   <si>
-    <t xml:space="preserve">cream;gelatin;sugar;vanilla </t>
+    <t xml:space="preserve">cream;gelatin;sugar;vanilla</t>
   </si>
   <si>
     <t xml:space="preserve">PannaCotta.jpg</t>
@@ -1129,12 +1129,12 @@
     <t xml:space="preserve">basil;bread;garlic;guanciale;onion;tomato</t>
   </si>
   <si>
+    <t xml:space="preserve">basil;bread;garlicmozzarella;guanciale;tomato</t>
+  </si>
+  <si>
     <t xml:space="preserve">basil;bread;garlic;guanciale;mozzarella;onion;tomato</t>
   </si>
   <si>
-    <t xml:space="preserve">basil;bread;garlic;guanciale;mozzarella;tomato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spaghetti Carbonara</t>
   </si>
   <si>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">MEA021</t>
   </si>
   <si>
-    <t xml:space="preserve">Blackpepper;butter;gorgonzola;parmesan;rice;shallots;stock;wine</t>
+    <t xml:space="preserve">blackpepper;butter;gorgonzola;parmesan;rice;shallots;stock;wine</t>
   </si>
   <si>
     <t xml:space="preserve">Risotto alla Milanese</t>
@@ -1595,6 +1595,9 @@
   </si>
   <si>
     <t xml:space="preserve">MEA032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef;basil;garlic;vinaigrette</t>
   </si>
   <si>
     <t xml:space="preserve">beef;garlic;parsley;vinaigrette</t>
@@ -1874,28 +1877,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M108" activeCellId="0" sqref="M108"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M63" activeCellId="0" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
@@ -5022,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>345</v>
@@ -5051,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
@@ -5060,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>345</v>
@@ -5098,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N75" s="0" t="s">
         <v>345</v>
@@ -5127,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>0</v>
@@ -5136,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>345</v>
@@ -5174,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>345</v>
@@ -5212,7 +5214,7 @@
         <v>2</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>345</v>
@@ -5226,10 +5228,10 @@
         <v>39</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
@@ -5241,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>0</v>
@@ -5250,13 +5252,13 @@
         <v>2</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,10 +5266,10 @@
         <v>39</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
@@ -5279,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>0</v>
@@ -5288,13 +5290,13 @@
         <v>2</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N81" s="0" t="s">
         <v>357</v>
@@ -5364,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N82" s="0" t="s">
         <v>357</v>
@@ -5373,15 +5375,15 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
@@ -5390,36 +5392,36 @@
         <v>0</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>356</v>
+      <c r="M83" s="0" t="s">
+        <v>364</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
@@ -5428,36 +5430,36 @@
         <v>0</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>360</v>
+      <c r="M84" s="0" t="s">
+        <v>367</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
@@ -5466,25 +5468,25 @@
         <v>0</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M85" s="1" t="s">
-        <v>361</v>
+      <c r="M85" s="0" t="s">
+        <v>368</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N86" s="0" t="s">
         <v>365</v>
@@ -5554,7 +5556,7 @@
         <v>2</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N87" s="0" t="s">
         <v>365</v>
@@ -5592,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N88" s="0" t="s">
         <v>365</v>
@@ -5630,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N89" s="0" t="s">
         <v>365</v>
@@ -5668,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N90" s="0" t="s">
         <v>365</v>
@@ -5682,13 +5684,10 @@
         <v>39</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>0</v>
@@ -5700,19 +5699,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,13 +5719,10 @@
         <v>39</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>0</v>
@@ -5738,19 +5734,19 @@
         <v>0</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,13 +5754,10 @@
         <v>39</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>0</v>
@@ -5776,19 +5769,19 @@
         <v>0</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="N94" s="0" t="s">
         <v>376</v>
@@ -5831,7 +5824,7 @@
         <v>39</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0</v>
@@ -5846,19 +5839,19 @@
         <v>0</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,19 +5874,19 @@
         <v>0</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,13 +5894,13 @@
         <v>39</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>0</v>
@@ -5916,19 +5909,19 @@
         <v>0</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,10 +5929,10 @@
         <v>39</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>381</v>
+        <v>227</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>0</v>
@@ -5951,19 +5944,19 @@
         <v>0</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,10 +5964,10 @@
         <v>39</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>374</v>
+        <v>227</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>0</v>
@@ -5986,19 +5979,19 @@
         <v>0</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6006,13 +5999,13 @@
         <v>39</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>386</v>
+        <v>227</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
@@ -6024,30 +6017,33 @@
         <v>0</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>227</v>
+        <v>395</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>396</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>0</v>
@@ -6061,28 +6057,32 @@
       <c r="I101" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K101" s="1"/>
       <c r="M101" s="0" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>227</v>
+        <v>395</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>396</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>0</v>
@@ -6096,28 +6096,29 @@
       <c r="I102" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K102" s="1"/>
       <c r="M102" s="0" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>227</v>
+        <v>395</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>0</v>
@@ -6131,14 +6132,15 @@
       <c r="I103" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K103" s="1"/>
       <c r="M103" s="0" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6146,16 +6148,16 @@
         <v>39</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>0</v>
@@ -6169,15 +6171,16 @@
       <c r="I104" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="M104" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6185,16 +6188,16 @@
         <v>39</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0</v>
@@ -6208,15 +6211,16 @@
       <c r="I105" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="M105" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,13 +6228,16 @@
         <v>39</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>395</v>
+        <v>40</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>0</v>
@@ -6244,15 +6251,16 @@
       <c r="I106" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="M106" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6286,7 +6294,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="M107" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N107" s="0" t="s">
         <v>43</v>
@@ -6326,7 +6334,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="M108" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N108" s="0" t="s">
         <v>43</v>
@@ -6366,7 +6374,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="M109" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="N109" s="0" t="s">
         <v>43</v>
@@ -6406,7 +6414,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="M110" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N110" s="0" t="s">
         <v>43</v>
@@ -6446,7 +6454,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="M111" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="N111" s="0" t="s">
         <v>43</v>
@@ -6486,7 +6494,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="M112" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N112" s="0" t="s">
         <v>43</v>
@@ -6526,7 +6534,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="M113" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N113" s="0" t="s">
         <v>43</v>
@@ -6566,7 +6574,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="M114" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N114" s="0" t="s">
         <v>43</v>
@@ -6575,15 +6583,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>1</v>
@@ -6592,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>0</v>
@@ -6601,29 +6606,24 @@
         <v>0</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
+        <v>1</v>
+      </c>
       <c r="M115" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>43</v>
+        <v>415</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>1</v>
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>0</v>
@@ -6641,29 +6641,24 @@
         <v>0</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
+        <v>1</v>
+      </c>
       <c r="M116" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>43</v>
+        <v>415</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1</v>
@@ -6672,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>0</v>
@@ -6681,18 +6676,16 @@
         <v>0</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
+        <v>1</v>
+      </c>
       <c r="M117" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>43</v>
+        <v>415</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>44</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,10 +6711,10 @@
         <v>0</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="N118" s="0" t="s">
         <v>415</v>
@@ -6753,10 +6746,10 @@
         <v>0</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N119" s="0" t="s">
         <v>415</v>
@@ -6788,10 +6781,10 @@
         <v>0</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N120" s="0" t="s">
         <v>415</v>
@@ -6800,47 +6793,48 @@
         <v>416</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K121" s="1"/>
       <c r="M121" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>1</v>
@@ -6858,24 +6852,25 @@
         <v>0</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K122" s="3"/>
       <c r="M122" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="O122" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>1</v>
@@ -6893,16 +6888,17 @@
         <v>0</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K123" s="3"/>
       <c r="M123" s="0" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="O123" s="0" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6910,19 +6906,19 @@
         <v>39</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>0</v>
@@ -6930,15 +6926,15 @@
       <c r="I124" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K124" s="1"/>
+      <c r="K124" s="3"/>
       <c r="M124" s="0" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O124" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,7 +6964,7 @@
       </c>
       <c r="K125" s="3"/>
       <c r="M125" s="0" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N125" s="0" t="s">
         <v>428</v>
@@ -6982,10 +6978,10 @@
         <v>39</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>0</v>
@@ -7000,17 +6996,17 @@
         <v>0</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K126" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K126" s="1"/>
       <c r="M126" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="O126" s="0" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7018,10 +7014,10 @@
         <v>39</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>0</v>
@@ -7036,17 +7032,17 @@
         <v>0</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K127" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K127" s="1"/>
       <c r="M127" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="O127" s="0" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,10 +7050,10 @@
         <v>39</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>0</v>
@@ -7072,17 +7068,17 @@
         <v>0</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K128" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K128" s="1"/>
       <c r="M128" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="O128" s="0" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,7 +7108,7 @@
       </c>
       <c r="K129" s="1"/>
       <c r="M129" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="N129" s="0" t="s">
         <v>435</v>
@@ -7126,10 +7122,10 @@
         <v>39</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>0</v>
@@ -7138,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>0</v>
@@ -7148,13 +7144,13 @@
       </c>
       <c r="K130" s="1"/>
       <c r="M130" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N130" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="O130" s="0" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7162,10 +7158,10 @@
         <v>39</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>0</v>
@@ -7174,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>0</v>
@@ -7184,49 +7180,48 @@
       </c>
       <c r="K131" s="1"/>
       <c r="M131" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="O131" s="0" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" s="1"/>
+        <v>2</v>
+      </c>
       <c r="M132" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="O132" s="0" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7234,16 +7229,16 @@
         <v>39</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>1</v>
@@ -7252,17 +7247,17 @@
         <v>0</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="L133" s="1"/>
       <c r="M133" s="0" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="O133" s="0" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,19 +7265,19 @@
         <v>39</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>0</v>
@@ -7290,26 +7285,26 @@
       <c r="I134" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K134" s="1"/>
+      <c r="L134" s="3"/>
       <c r="M134" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="O134" s="0" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>0</v>
@@ -7318,22 +7313,23 @@
         <v>0</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L135" s="3"/>
       <c r="M135" s="0" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O135" s="0" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,7 +7337,7 @@
         <v>39</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>0</v>
@@ -7353,23 +7349,23 @@
         <v>0</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L136" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L136" s="3"/>
       <c r="M136" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O136" s="0" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,10 +7373,10 @@
         <v>39</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>0</v>
@@ -7395,17 +7391,17 @@
         <v>0</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L137" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="L137" s="1"/>
       <c r="M137" s="0" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O137" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,10 +7409,10 @@
         <v>39</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>0</v>
@@ -7431,17 +7427,17 @@
         <v>0</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L138" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="L138" s="1"/>
       <c r="M138" s="0" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="N138" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O138" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7449,10 +7445,10 @@
         <v>39</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>0</v>
@@ -7467,17 +7463,17 @@
         <v>0</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L139" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="L139" s="1"/>
       <c r="M139" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O139" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,16 +7481,16 @@
         <v>39</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>0</v>
@@ -7503,17 +7499,17 @@
         <v>0</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="L140" s="1"/>
       <c r="M140" s="0" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O140" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +7539,7 @@
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="N141" s="0" t="s">
         <v>458</v>
@@ -7579,7 +7575,7 @@
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="N142" s="0" t="s">
         <v>458</v>
@@ -7615,7 +7611,7 @@
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N143" s="0" t="s">
         <v>458</v>
@@ -7651,7 +7647,7 @@
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N144" s="0" t="s">
         <v>458</v>
@@ -7660,21 +7656,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>0</v>
@@ -7685,32 +7681,32 @@
       <c r="I145" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L145" s="1"/>
+      <c r="K145" s="4"/>
       <c r="M145" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="O145" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>0</v>
@@ -7721,32 +7717,32 @@
       <c r="I146" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L146" s="1"/>
+      <c r="K146" s="4"/>
       <c r="M146" s="0" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="O146" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>0</v>
@@ -7755,34 +7751,34 @@
         <v>0</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L147" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="K147" s="4"/>
       <c r="M147" s="0" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="O147" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>0</v>
@@ -7791,17 +7787,17 @@
         <v>0</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L148" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="4"/>
       <c r="M148" s="0" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="O148" s="0" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7809,16 +7805,16 @@
         <v>39</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>0</v>
@@ -7827,34 +7823,35 @@
         <v>0</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
       <c r="M149" s="0" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="O149" s="0" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>0</v>
@@ -7863,25 +7860,26 @@
         <v>0</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K150" s="4"/>
+      <c r="L150" s="1"/>
       <c r="M150" s="0" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="O150" s="0" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
@@ -7890,34 +7888,35 @@
         <v>0</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K151" s="4"/>
+      <c r="L151" s="3"/>
       <c r="M151" s="0" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="O151" s="0" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
@@ -7926,34 +7925,35 @@
         <v>0</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K152" s="4"/>
+      <c r="L152" s="3"/>
       <c r="M152" s="0" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="O152" s="0" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
@@ -7962,27 +7962,27 @@
         <v>0</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
+      <c r="L153" s="3"/>
       <c r="M153" s="0" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="O153" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,7 +7990,7 @@
         <v>39</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
@@ -7999,27 +7999,27 @@
         <v>0</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K154" s="4"/>
-      <c r="L154" s="1"/>
+      <c r="L154" s="3"/>
       <c r="M154" s="0" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="O154" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8050,7 +8050,7 @@
       <c r="K155" s="4"/>
       <c r="L155" s="3"/>
       <c r="M155" s="0" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="N155" s="0" t="s">
         <v>484</v>
@@ -8087,7 +8087,7 @@
       <c r="K156" s="4"/>
       <c r="L156" s="3"/>
       <c r="M156" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N156" s="0" t="s">
         <v>484</v>
@@ -8124,7 +8124,7 @@
       <c r="K157" s="4"/>
       <c r="L157" s="3"/>
       <c r="M157" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="N157" s="0" t="s">
         <v>484</v>
@@ -8161,7 +8161,7 @@
       <c r="K158" s="4"/>
       <c r="L158" s="3"/>
       <c r="M158" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="N158" s="0" t="s">
         <v>484</v>
@@ -8175,36 +8175,36 @@
         <v>39</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K159" s="4"/>
-      <c r="L159" s="3"/>
+      <c r="L159" s="1"/>
       <c r="M159" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="O159" s="0" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8212,36 +8212,35 @@
         <v>39</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K160" s="4"/>
-      <c r="L160" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L160" s="1"/>
       <c r="M160" s="0" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="O160" s="0" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,10 +8248,10 @@
         <v>39</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>0</v>
@@ -8261,24 +8260,23 @@
         <v>0</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K161" s="4"/>
-      <c r="L161" s="3"/>
+      <c r="L161" s="1"/>
       <c r="M161" s="0" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="O161" s="0" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,10 +8284,10 @@
         <v>39</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>0</v>
@@ -8298,24 +8296,23 @@
         <v>0</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K162" s="4"/>
-      <c r="L162" s="3"/>
+      <c r="L162" s="1"/>
       <c r="M162" s="0" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="O162" s="0" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8323,36 +8320,35 @@
         <v>39</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K163" s="4"/>
+        <v>2</v>
+      </c>
       <c r="L163" s="1"/>
       <c r="M163" s="0" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="O163" s="0" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8360,35 +8356,35 @@
         <v>39</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L164" s="1"/>
       <c r="M164" s="0" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="O164" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,7 +8414,7 @@
       </c>
       <c r="L165" s="1"/>
       <c r="M165" s="0" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="N165" s="0" t="s">
         <v>502</v>
@@ -8454,7 +8450,7 @@
       </c>
       <c r="L166" s="1"/>
       <c r="M166" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N166" s="0" t="s">
         <v>502</v>
@@ -8490,7 +8486,7 @@
       </c>
       <c r="L167" s="1"/>
       <c r="M167" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N167" s="0" t="s">
         <v>502</v>
@@ -8526,7 +8522,7 @@
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="N168" s="0" t="s">
         <v>502</v>
@@ -8535,148 +8531,156 @@
         <v>503</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>500</v>
+        <v>511</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>512</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L169" s="1"/>
+        <v>3</v>
+      </c>
       <c r="M169" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="N169" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="O169" s="0" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>500</v>
+        <v>511</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>512</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L170" s="1"/>
+        <v>3</v>
+      </c>
       <c r="M170" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="N170" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="O170" s="0" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>500</v>
+        <v>511</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>512</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L171" s="1"/>
+        <v>3</v>
+      </c>
       <c r="M171" s="0" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="N171" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="O171" s="0" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>500</v>
+        <v>511</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>512</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L172" s="1"/>
+        <v>3</v>
+      </c>
       <c r="M172" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="O172" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8684,10 +8688,10 @@
         <v>39</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>0</v>
@@ -8699,22 +8703,22 @@
         <v>0</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M173" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="N173" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="O173" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8722,10 +8726,10 @@
         <v>39</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>0</v>
@@ -8737,22 +8741,22 @@
         <v>0</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N174" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="O174" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8760,37 +8764,34 @@
         <v>39</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M175" s="0" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="N175" s="0" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="O175" s="0" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8798,37 +8799,34 @@
         <v>39</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="N176" s="0" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="O176" s="0" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8836,37 +8834,34 @@
         <v>39</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="N177" s="0" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="O177" s="0" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,45 +8869,42 @@
         <v>39</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="N178" s="0" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="O178" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>0</v>
@@ -8921,10 +8913,10 @@
         <v>0</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>0</v>
@@ -8932,119 +8924,126 @@
       <c r="I179" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K179" s="1"/>
       <c r="M179" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="N179" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="O179" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K180" s="1"/>
+      <c r="L180" s="3"/>
       <c r="M180" s="0" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="N180" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="O180" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K181" s="1"/>
+      <c r="L181" s="3"/>
       <c r="M181" s="0" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="N181" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="O181" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K182" s="1"/>
+      <c r="L182" s="3"/>
       <c r="M182" s="0" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="N182" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="O182" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9052,16 +9051,16 @@
         <v>39</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>0</v>
@@ -9070,17 +9069,18 @@
         <v>0</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K183" s="1"/>
+      <c r="L183" s="3"/>
       <c r="M183" s="0" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="N183" s="0" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O183" s="0" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,13 +9088,13 @@
         <v>39</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>1</v>
@@ -9106,18 +9106,18 @@
         <v>0</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K184" s="1"/>
-      <c r="L184" s="3"/>
+      <c r="L184" s="1"/>
       <c r="M184" s="0" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="N184" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="O184" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9125,13 +9125,13 @@
         <v>39</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>1</v>
@@ -9143,18 +9143,18 @@
         <v>0</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K185" s="1"/>
-      <c r="L185" s="3"/>
+      <c r="L185" s="1"/>
       <c r="M185" s="0" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="N185" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="O185" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,13 +9162,13 @@
         <v>39</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>1</v>
@@ -9180,18 +9180,18 @@
         <v>0</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186" s="1"/>
-      <c r="L186" s="3"/>
+      <c r="L186" s="1"/>
       <c r="M186" s="0" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N186" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="O186" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9199,13 +9199,13 @@
         <v>39</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>1</v>
@@ -9217,18 +9217,18 @@
         <v>0</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K187" s="1"/>
-      <c r="L187" s="3"/>
+      <c r="L187" s="1"/>
       <c r="M187" s="0" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="N187" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="O187" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,7 +9236,7 @@
         <v>39</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>1</v>
@@ -9245,27 +9245,27 @@
         <v>0</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="0" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="N188" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="O188" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9273,7 +9273,7 @@
         <v>39</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
@@ -9282,27 +9282,27 @@
         <v>0</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="N189" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="O189" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="N189" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="O189" s="0" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9310,7 +9310,7 @@
         <v>39</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
@@ -9319,27 +9319,27 @@
         <v>0</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="N190" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="O190" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,7 +9347,7 @@
         <v>39</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
@@ -9356,38 +9356,38 @@
         <v>0</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="N191" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="O191" s="0" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>0</v>
@@ -9402,29 +9402,27 @@
         <v>0</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
+        <v>2</v>
+      </c>
       <c r="M192" s="0" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="N192" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="O192" s="0" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>0</v>
@@ -9439,18 +9437,16 @@
         <v>0</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
+        <v>2</v>
+      </c>
       <c r="M193" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="N193" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="O193" s="0" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9458,10 +9454,10 @@
         <v>39</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>0</v>
@@ -9476,18 +9472,17 @@
         <v>0</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K194" s="1"/>
+        <v>2</v>
+      </c>
       <c r="L194" s="1"/>
       <c r="M194" s="0" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="N194" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="O194" s="0" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9495,10 +9490,10 @@
         <v>39</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>0</v>
@@ -9513,160 +9508,17 @@
         <v>0</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K195" s="1"/>
+        <v>2</v>
+      </c>
       <c r="L195" s="1"/>
       <c r="M195" s="0" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="N195" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="O195" s="0" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="D196" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M196" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="N196" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="O196" s="0" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="D197" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M197" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="N197" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="O197" s="0" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="D198" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L198" s="1"/>
-      <c r="M198" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="N198" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="O198" s="0" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="D199" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H199" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L199" s="1"/>
-      <c r="M199" s="0" t="s">
         <v>564</v>
-      </c>
-      <c r="N199" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="O199" s="0" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
+++ b/Final Fantasty/Assets/Resources/DB/Ingredients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="589">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -325,9 +325,6 @@
     <t xml:space="preserve">Sage, Rosemary and Thyme</t>
   </si>
   <si>
-    <t xml:space="preserve">Flavour Enhancer</t>
-  </si>
-  <si>
     <t xml:space="preserve">parsley</t>
   </si>
   <si>
@@ -1129,7 +1126,7 @@
     <t xml:space="preserve">basil;bread;garlic;guanciale;onion;tomato</t>
   </si>
   <si>
-    <t xml:space="preserve">basil;bread;garlicmozzarella;guanciale;tomato</t>
+    <t xml:space="preserve">basil;bread;garlic;mozzarella;guanciale;tomato</t>
   </si>
   <si>
     <t xml:space="preserve">basil;bread;garlic;guanciale;mozzarella;onion;tomato</t>
@@ -1745,6 +1742,78 @@
   </si>
   <si>
     <t xml:space="preserve">chicken;crumbs;egg;flour;mozzarella;parmesan;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread and Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A culinary master piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BreadButter.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garlic Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who doesn’t love garlic bread?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;butter;garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GarlicBread.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;garlic;oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;butter;garlic;redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;garlic;oil;redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;butter;garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;butter;garlic;redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;garlic;oil;redpepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Margherita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint: There’s no other pizzas!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread;mozzarella;tomato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margharita.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint: I sometimes lie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basil;bread;mozzarella;tomato</t>
   </si>
 </sst>
 </file>
@@ -1877,27 +1946,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P195"/>
+  <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M63" activeCellId="0" sqref="M63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N207" activeCellId="0" sqref="N207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,37 +2632,34 @@
         <v>91</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="M16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>28</v>
@@ -2603,10 +2670,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
@@ -2627,19 +2694,19 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" s="0" t="s">
+      <c r="O17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="P17" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,10 +2714,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
@@ -2674,16 +2741,16 @@
         <v>25</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,7 +2758,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>76</v>
@@ -2715,16 +2782,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" s="0" t="s">
+      <c r="O19" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,40 +2799,40 @@
         <v>16</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="0" t="s">
+      <c r="M20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="N20" s="0" t="s">
+      <c r="O20" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,10 +2840,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
@@ -2797,19 +2864,19 @@
         <v>3</v>
       </c>
       <c r="J21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="M21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="M21" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" s="0" t="s">
+      <c r="O21" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,40 +2884,40 @@
         <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="s">
+      <c r="M22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" s="0" t="s">
+      <c r="O22" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,40 +2925,40 @@
         <v>16</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="0" t="s">
+      <c r="M23" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="N23" s="0" t="s">
+      <c r="O23" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,43 +2966,43 @@
         <v>16</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="0" t="s">
+      <c r="M24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="M24" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="N24" s="0" t="s">
+      <c r="O24" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="0" t="s">
+      <c r="P24" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,10 +3010,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -2970,16 +3037,16 @@
         <v>25</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="O25" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>28</v>
@@ -2990,40 +3057,40 @@
         <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="0" t="s">
+      <c r="M26" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="N26" s="0" t="s">
+      <c r="O26" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>146</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
@@ -3058,19 +3125,19 @@
         <v>31</v>
       </c>
       <c r="L27" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="N27" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="O27" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="O27" s="0" t="s">
+      <c r="P27" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,40 +3145,40 @@
         <v>16</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N28" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="N28" s="0" t="s">
+      <c r="O28" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>28</v>
@@ -3122,10 +3189,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -3146,16 +3213,16 @@
         <v>0</v>
       </c>
       <c r="L29" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="M29" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="N29" s="0" t="s">
+      <c r="O29" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>28</v>
@@ -3166,40 +3233,40 @@
         <v>16</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="0" t="s">
+      <c r="M30" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="N30" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="M30" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="N30" s="0" t="s">
+      <c r="O30" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>165</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>28</v>
@@ -3210,40 +3277,40 @@
         <v>16</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0" t="s">
+      <c r="M31" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="N31" s="0" t="s">
+      <c r="O31" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>28</v>
@@ -3254,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>76</v>
@@ -3278,16 +3345,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="N32" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="M32" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="N32" s="0" t="s">
+      <c r="O32" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>28</v>
@@ -3298,10 +3365,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0</v>
@@ -3322,16 +3389,16 @@
         <v>3</v>
       </c>
       <c r="L33" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="N33" s="0" t="s">
+      <c r="O33" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="P33" s="0" t="s">
         <v>28</v>
@@ -3342,10 +3409,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0</v>
@@ -3369,16 +3436,16 @@
         <v>31</v>
       </c>
       <c r="L34" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="N34" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="M34" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="N34" s="0" t="s">
+      <c r="O34" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>28</v>
@@ -3389,10 +3456,10 @@
         <v>16</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
@@ -3416,16 +3483,16 @@
         <v>25</v>
       </c>
       <c r="L35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="N35" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="M35" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="N35" s="0" t="s">
+      <c r="O35" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="P35" s="0" t="s">
         <v>28</v>
@@ -3436,37 +3503,37 @@
         <v>16</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="0" t="s">
+      <c r="M36" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="N36" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="M36" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="N36" s="0" t="s">
+      <c r="O36" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="O36" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="P36" s="0" t="s">
         <v>28</v>
@@ -3477,40 +3544,40 @@
         <v>16</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="0" t="s">
+      <c r="M37" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="N37" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="M37" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="N37" s="0" t="s">
+      <c r="O37" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="P37" s="0" t="s">
         <v>28</v>
@@ -3521,10 +3588,10 @@
         <v>16</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
@@ -3545,16 +3612,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="N38" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="M38" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="N38" s="0" t="s">
+      <c r="O38" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="O38" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="P38" s="0" t="s">
         <v>28</v>
@@ -3565,7 +3632,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>76</v>
@@ -3589,16 +3656,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="M39" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="N39" s="0" t="s">
+      <c r="O39" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="P39" s="0" t="s">
         <v>28</v>
@@ -3609,10 +3676,10 @@
         <v>16</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>209</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
@@ -3633,16 +3700,16 @@
         <v>2</v>
       </c>
       <c r="L40" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="N40" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="M40" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="N40" s="0" t="s">
+      <c r="O40" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="P40" s="0" t="s">
         <v>28</v>
@@ -3653,7 +3720,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>76</v>
@@ -3677,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="M41" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="N41" s="0" t="s">
+      <c r="O41" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="P41" s="0" t="s">
         <v>28</v>
@@ -3697,40 +3764,40 @@
         <v>16</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="0" t="s">
+      <c r="M42" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="N42" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="M42" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="N42" s="0" t="s">
+      <c r="O42" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>221</v>
       </c>
       <c r="P42" s="0" t="s">
         <v>28</v>
@@ -3741,10 +3808,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
@@ -3765,16 +3832,16 @@
         <v>3</v>
       </c>
       <c r="L43" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="N43" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="M43" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="N43" s="0" t="s">
+      <c r="O43" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="P43" s="0" t="s">
         <v>28</v>
@@ -3785,7 +3852,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>76</v>
@@ -3809,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="L44" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="N44" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="M44" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="N44" s="0" t="s">
+      <c r="O44" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="P44" s="0" t="s">
         <v>28</v>
@@ -3829,40 +3896,40 @@
         <v>16</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="0" t="s">
+      <c r="M45" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="N45" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="M45" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="N45" s="0" t="s">
+      <c r="O45" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>235</v>
       </c>
       <c r="P45" s="0" t="s">
         <v>28</v>
@@ -3873,10 +3940,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>237</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0</v>
@@ -3900,16 +3967,16 @@
         <v>31</v>
       </c>
       <c r="L46" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="N46" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="M46" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="N46" s="0" t="s">
+      <c r="O46" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>240</v>
       </c>
       <c r="P46" s="0" t="s">
         <v>28</v>
@@ -3920,7 +3987,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>76</v>
@@ -3944,19 +4011,19 @@
         <v>2</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="N47" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="M47" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="N47" s="0" t="s">
+      <c r="O47" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="P47" s="0" t="s">
         <v>28</v>
@@ -3967,40 +4034,40 @@
         <v>16</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="0" t="s">
+      <c r="M48" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="N48" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="M48" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="N48" s="0" t="s">
+      <c r="O48" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="P48" s="0" t="s">
         <v>28</v>
@@ -4011,37 +4078,37 @@
         <v>16</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="0" t="s">
+      <c r="M49" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="N49" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="M49" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="N49" s="0" t="s">
+      <c r="O49" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>253</v>
       </c>
       <c r="P49" s="0" t="s">
         <v>28</v>
@@ -4052,10 +4119,10 @@
         <v>16</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>0</v>
@@ -4076,16 +4143,16 @@
         <v>3</v>
       </c>
       <c r="L50" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="N50" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="M50" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="N50" s="0" t="s">
+      <c r="O50" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>258</v>
       </c>
       <c r="P50" s="0" t="s">
         <v>28</v>
@@ -4096,40 +4163,40 @@
         <v>16</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" s="0" t="s">
+      <c r="M51" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="N51" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="M51" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="N51" s="0" t="s">
+      <c r="O51" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>263</v>
       </c>
       <c r="P51" s="0" t="s">
         <v>28</v>
@@ -4140,40 +4207,40 @@
         <v>16</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" s="0" t="s">
+      <c r="M52" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="N52" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="M52" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="N52" s="0" t="s">
+      <c r="O52" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>268</v>
       </c>
       <c r="P52" s="0" t="s">
         <v>28</v>
@@ -4184,40 +4251,40 @@
         <v>16</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="0" t="s">
+      <c r="M53" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="N53" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="M53" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="N53" s="0" t="s">
+      <c r="O53" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>273</v>
       </c>
       <c r="P53" s="0" t="s">
         <v>28</v>
@@ -4228,10 +4295,10 @@
         <v>16</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>275</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
@@ -4252,16 +4319,16 @@
         <v>0</v>
       </c>
       <c r="L54" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="N54" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="M54" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="N54" s="0" t="s">
+      <c r="O54" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="P54" s="0" t="s">
         <v>28</v>
@@ -4272,40 +4339,40 @@
         <v>16</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="D55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="0" t="s">
+      <c r="M55" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="N55" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="M55" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="N55" s="0" t="s">
+      <c r="O55" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>283</v>
       </c>
       <c r="P55" s="0" t="s">
         <v>28</v>
@@ -4316,40 +4383,40 @@
         <v>16</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" s="0" t="s">
+      <c r="M56" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="N56" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="M56" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="N56" s="0" t="s">
+      <c r="O56" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="P56" s="0" t="s">
         <v>28</v>
@@ -4360,40 +4427,40 @@
         <v>16</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" s="0" t="s">
+      <c r="M57" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="N57" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="M57" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="N57" s="0" t="s">
+      <c r="O57" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="O57" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="P57" s="0" t="s">
         <v>28</v>
@@ -4404,7 +4471,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>76</v>
@@ -4431,16 +4498,16 @@
         <v>25</v>
       </c>
       <c r="L58" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="N58" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="M58" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="N58" s="0" t="s">
+      <c r="O58" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="O58" s="0" t="s">
-        <v>297</v>
       </c>
       <c r="P58" s="0" t="s">
         <v>28</v>
@@ -4451,40 +4518,40 @@
         <v>16</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="0" t="s">
+      <c r="M59" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="N59" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="M59" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="N59" s="0" t="s">
+      <c r="O59" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="P59" s="0" t="s">
         <v>28</v>
@@ -4495,43 +4562,43 @@
         <v>16</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L60" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="L60" s="0" t="s">
+      <c r="M60" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="N60" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="M60" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="N60" s="0" t="s">
+      <c r="O60" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="O60" s="0" t="s">
-        <v>307</v>
       </c>
       <c r="P60" s="0" t="s">
         <v>28</v>
@@ -4542,37 +4609,37 @@
         <v>39</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="0" t="s">
+      <c r="N61" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="N61" s="0" t="s">
+      <c r="O61" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="P61" s="0" t="s">
         <v>28</v>
@@ -4583,37 +4650,37 @@
         <v>39</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" s="0" t="s">
+      <c r="N62" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="N62" s="0" t="s">
+      <c r="O62" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="O62" s="0" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,34 +4688,34 @@
         <v>39</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" s="0" t="s">
+      <c r="N63" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="N63" s="0" t="s">
+      <c r="O63" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,37 +4723,37 @@
         <v>39</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" s="0" t="s">
+      <c r="N64" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="N64" s="0" t="s">
+      <c r="O64" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,11 +4761,11 @@
         <v>39</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="D65" s="0" t="n">
         <v>1</v>
       </c>
@@ -4718,13 +4785,13 @@
         <v>1</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N65" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="O65" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="O65" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4732,11 +4799,11 @@
         <v>39</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
       </c>
@@ -4756,13 +4823,13 @@
         <v>1</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N66" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="O66" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,11 +4837,11 @@
         <v>39</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
@@ -4794,13 +4861,13 @@
         <v>1</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N67" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="O67" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="O67" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,10 +4875,10 @@
         <v>39</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -4833,13 +4900,13 @@
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N68" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="N68" s="0" t="s">
+      <c r="O68" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="O68" s="0" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,10 +4914,10 @@
         <v>39</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>1</v>
@@ -4872,13 +4939,13 @@
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="O69" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="N69" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="O69" s="0" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,37 +4953,37 @@
         <v>39</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="N70" s="0" t="s">
+      <c r="O70" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,37 +4991,37 @@
         <v>39</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="N71" s="0" t="s">
+      <c r="O71" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,11 +5029,11 @@
         <v>39</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
       </c>
@@ -4986,13 +5053,13 @@
         <v>2</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N72" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="O72" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,11 +5067,11 @@
         <v>39</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D73" s="0" t="n">
         <v>1</v>
       </c>
@@ -5024,13 +5091,13 @@
         <v>2</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N73" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="O73" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,11 +5105,11 @@
         <v>39</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D74" s="0" t="n">
         <v>1</v>
       </c>
@@ -5062,13 +5129,13 @@
         <v>2</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N74" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="O74" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O74" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,11 +5143,11 @@
         <v>39</v>
       </c>
       <c r="B75" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
@@ -5100,13 +5167,13 @@
         <v>2</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N75" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="O75" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,11 +5181,11 @@
         <v>39</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
@@ -5138,13 +5205,13 @@
         <v>2</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N76" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="O76" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O76" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,11 +5219,11 @@
         <v>39</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D77" s="0" t="n">
         <v>1</v>
       </c>
@@ -5176,13 +5243,13 @@
         <v>2</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N77" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="O77" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,11 +5257,11 @@
         <v>39</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
@@ -5214,13 +5281,13 @@
         <v>2</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N78" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="O78" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5228,37 +5295,37 @@
         <v>39</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M79" s="1" t="s">
+      <c r="N79" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="N79" s="0" t="s">
+      <c r="O79" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5266,11 +5333,11 @@
         <v>39</v>
       </c>
       <c r="B80" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
@@ -5290,13 +5357,13 @@
         <v>2</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N80" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="O80" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,11 +5371,11 @@
         <v>39</v>
       </c>
       <c r="B81" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="D81" s="0" t="n">
         <v>1</v>
       </c>
@@ -5328,13 +5395,13 @@
         <v>2</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N81" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="O81" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="O81" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,11 +5409,11 @@
         <v>39</v>
       </c>
       <c r="B82" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
@@ -5366,13 +5433,13 @@
         <v>2</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N82" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="O82" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="O82" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,37 +5447,37 @@
         <v>39</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="D83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M83" s="0" t="s">
+      <c r="N83" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="N83" s="0" t="s">
+      <c r="O83" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O83" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,11 +5485,11 @@
         <v>39</v>
       </c>
       <c r="B84" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
       </c>
@@ -5442,13 +5509,13 @@
         <v>2</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N84" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O84" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,11 +5523,11 @@
         <v>39</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
       </c>
@@ -5480,13 +5547,13 @@
         <v>2</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N85" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O85" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O85" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,11 +5561,11 @@
         <v>39</v>
       </c>
       <c r="B86" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
       </c>
@@ -5518,13 +5585,13 @@
         <v>2</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N86" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O86" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O86" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,11 +5599,11 @@
         <v>39</v>
       </c>
       <c r="B87" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D87" s="0" t="n">
         <v>1</v>
       </c>
@@ -5556,13 +5623,13 @@
         <v>2</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N87" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O87" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O87" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5570,11 +5637,11 @@
         <v>39</v>
       </c>
       <c r="B88" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D88" s="0" t="n">
         <v>1</v>
       </c>
@@ -5594,13 +5661,13 @@
         <v>2</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N88" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O88" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O88" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,11 +5675,11 @@
         <v>39</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D89" s="0" t="n">
         <v>1</v>
       </c>
@@ -5632,13 +5699,13 @@
         <v>2</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N89" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O89" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O89" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5646,11 +5713,11 @@
         <v>39</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>363</v>
-      </c>
       <c r="D90" s="0" t="n">
         <v>1</v>
       </c>
@@ -5670,13 +5737,13 @@
         <v>2</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N90" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="O90" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="O90" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,34 +5751,34 @@
         <v>39</v>
       </c>
       <c r="B91" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" s="0" t="s">
+      <c r="N91" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="N91" s="0" t="s">
+      <c r="O91" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="O91" s="0" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,7 +5786,7 @@
         <v>39</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
@@ -5740,13 +5807,13 @@
         <v>1</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N92" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O92" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="O92" s="0" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,7 +5821,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
@@ -5775,13 +5842,13 @@
         <v>1</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N93" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O93" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="O93" s="0" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,7 +5856,7 @@
         <v>39</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
@@ -5810,13 +5877,13 @@
         <v>1</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N94" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O94" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="O94" s="0" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5891,7 @@
         <v>39</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0</v>
@@ -5845,13 +5912,13 @@
         <v>1</v>
       </c>
       <c r="M95" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="N95" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="N95" s="0" t="s">
+      <c r="O95" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="O95" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,7 +5926,7 @@
         <v>39</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>0</v>
@@ -5880,13 +5947,13 @@
         <v>1</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N96" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="O96" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="O96" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,34 +5961,34 @@
         <v>39</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" s="0" t="s">
+      <c r="N97" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="N97" s="0" t="s">
+      <c r="O97" s="0" t="s">
         <v>388</v>
-      </c>
-      <c r="O97" s="0" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,7 +5996,7 @@
         <v>39</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>1</v>
@@ -5950,13 +6017,13 @@
         <v>2</v>
       </c>
       <c r="M98" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="N98" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="N98" s="0" t="s">
+      <c r="O98" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="O98" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,7 +6031,7 @@
         <v>39</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>1</v>
@@ -5985,13 +6052,13 @@
         <v>2</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N99" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="O99" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="O99" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,7 +6066,7 @@
         <v>39</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>1</v>
@@ -6020,13 +6087,13 @@
         <v>2</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N100" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="O100" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="O100" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6034,10 +6101,10 @@
         <v>39</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>396</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>1</v>
@@ -6059,13 +6126,13 @@
       </c>
       <c r="K101" s="1"/>
       <c r="M101" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="N101" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="N101" s="0" t="s">
+      <c r="O101" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="O101" s="0" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,10 +6140,10 @@
         <v>39</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>396</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>1</v>
@@ -6098,13 +6165,13 @@
       </c>
       <c r="K102" s="1"/>
       <c r="M102" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N102" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="O102" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="O102" s="0" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,7 +6179,7 @@
         <v>39</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
@@ -6134,13 +6201,13 @@
       </c>
       <c r="K103" s="1"/>
       <c r="M103" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N103" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="O103" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="O103" s="0" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,7 +6241,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="M104" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N104" s="0" t="s">
         <v>43</v>
@@ -6214,7 +6281,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="M105" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N105" s="0" t="s">
         <v>43</v>
@@ -6254,7 +6321,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="M106" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N106" s="0" t="s">
         <v>43</v>
@@ -6294,7 +6361,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="M107" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N107" s="0" t="s">
         <v>43</v>
@@ -6334,7 +6401,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="M108" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N108" s="0" t="s">
         <v>43</v>
@@ -6374,7 +6441,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="M109" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N109" s="0" t="s">
         <v>43</v>
@@ -6414,7 +6481,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="M110" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N110" s="0" t="s">
         <v>43</v>
@@ -6454,7 +6521,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="M111" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N111" s="0" t="s">
         <v>43</v>
@@ -6494,7 +6561,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="M112" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N112" s="0" t="s">
         <v>43</v>
@@ -6534,7 +6601,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="M113" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N113" s="0" t="s">
         <v>43</v>
@@ -6574,7 +6641,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="M114" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N114" s="0" t="s">
         <v>43</v>
@@ -6588,34 +6655,34 @@
         <v>39</v>
       </c>
       <c r="B115" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="D115" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" s="0" t="s">
+      <c r="N115" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="N115" s="0" t="s">
+      <c r="O115" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="O115" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,7 +6690,7 @@
         <v>39</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>1</v>
@@ -6644,13 +6711,13 @@
         <v>1</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N116" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="O116" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="O116" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6658,7 +6725,7 @@
         <v>39</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>1</v>
@@ -6679,13 +6746,13 @@
         <v>1</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N117" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="O117" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="O117" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,7 +6760,7 @@
         <v>39</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>1</v>
@@ -6714,13 +6781,13 @@
         <v>0</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N118" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="O118" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="O118" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6728,7 +6795,7 @@
         <v>39</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -6749,13 +6816,13 @@
         <v>0</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N119" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="O119" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="O119" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,7 +6830,7 @@
         <v>39</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>1</v>
@@ -6784,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N120" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="O120" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="O120" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,7 +6865,7 @@
         <v>39</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>0</v>
@@ -6820,13 +6887,13 @@
       </c>
       <c r="K121" s="1"/>
       <c r="M121" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="N121" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="N121" s="0" t="s">
+      <c r="O121" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="O121" s="0" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6834,7 +6901,7 @@
         <v>39</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>1</v>
@@ -6856,13 +6923,13 @@
       </c>
       <c r="K122" s="3"/>
       <c r="M122" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="N122" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="N122" s="0" t="s">
+      <c r="O122" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="O122" s="0" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6870,7 +6937,7 @@
         <v>39</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>1</v>
@@ -6892,13 +6959,13 @@
       </c>
       <c r="K123" s="3"/>
       <c r="M123" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N123" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="O123" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="O123" s="0" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,7 +6973,7 @@
         <v>39</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>1</v>
@@ -6928,13 +6995,13 @@
       </c>
       <c r="K124" s="3"/>
       <c r="M124" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N124" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="O124" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="O124" s="0" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6942,7 +7009,7 @@
         <v>39</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
@@ -6964,13 +7031,13 @@
       </c>
       <c r="K125" s="3"/>
       <c r="M125" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N125" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="O125" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="O125" s="0" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6978,7 +7045,7 @@
         <v>39</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>2</v>
@@ -7000,13 +7067,13 @@
       </c>
       <c r="K126" s="1"/>
       <c r="M126" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="N126" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="N126" s="0" t="s">
+      <c r="O126" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="O126" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7014,7 +7081,7 @@
         <v>39</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>2</v>
@@ -7036,13 +7103,13 @@
       </c>
       <c r="K127" s="1"/>
       <c r="M127" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N127" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="O127" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="O127" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7050,7 +7117,7 @@
         <v>39</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>2</v>
@@ -7072,13 +7139,13 @@
       </c>
       <c r="K128" s="1"/>
       <c r="M128" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N128" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="O128" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="O128" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7086,7 +7153,7 @@
         <v>39</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>2</v>
@@ -7108,13 +7175,13 @@
       </c>
       <c r="K129" s="1"/>
       <c r="M129" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N129" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="O129" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="O129" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,7 +7189,7 @@
         <v>39</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>1</v>
@@ -7144,13 +7211,13 @@
       </c>
       <c r="K130" s="1"/>
       <c r="M130" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="N130" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="N130" s="0" t="s">
+      <c r="O130" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="O130" s="0" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>1</v>
@@ -7180,13 +7247,13 @@
       </c>
       <c r="K131" s="1"/>
       <c r="M131" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N131" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="O131" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="O131" s="0" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7194,34 +7261,34 @@
         <v>39</v>
       </c>
       <c r="B132" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M132" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="D132" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M132" s="0" t="s">
+      <c r="N132" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="N132" s="0" t="s">
+      <c r="O132" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="O132" s="0" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,7 +7296,7 @@
         <v>39</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>0</v>
@@ -7251,13 +7318,13 @@
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N133" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="O133" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="O133" s="0" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,7 +7332,7 @@
         <v>39</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>0</v>
@@ -7287,13 +7354,13 @@
       </c>
       <c r="L134" s="3"/>
       <c r="M134" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="N134" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="N134" s="0" t="s">
+      <c r="O134" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="O134" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7301,7 +7368,7 @@
         <v>39</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>0</v>
@@ -7323,13 +7390,13 @@
       </c>
       <c r="L135" s="3"/>
       <c r="M135" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N135" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="O135" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="O135" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7337,7 +7404,7 @@
         <v>39</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>0</v>
@@ -7359,13 +7426,13 @@
       </c>
       <c r="L136" s="3"/>
       <c r="M136" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N136" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="O136" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="O136" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,7 +7440,7 @@
         <v>39</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>2</v>
@@ -7395,13 +7462,13 @@
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="N137" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="N137" s="0" t="s">
+      <c r="O137" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O137" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,7 +7476,7 @@
         <v>39</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>2</v>
@@ -7431,13 +7498,13 @@
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N138" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O138" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O138" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,7 +7512,7 @@
         <v>39</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>2</v>
@@ -7467,13 +7534,13 @@
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N139" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O139" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O139" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7481,7 +7548,7 @@
         <v>39</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>2</v>
@@ -7503,13 +7570,13 @@
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N140" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O140" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O140" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +7584,7 @@
         <v>39</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>2</v>
@@ -7539,13 +7606,13 @@
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N141" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O141" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O141" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7553,7 +7620,7 @@
         <v>39</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>2</v>
@@ -7575,13 +7642,13 @@
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N142" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O142" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O142" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,7 +7656,7 @@
         <v>39</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>2</v>
@@ -7611,13 +7678,13 @@
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N143" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O143" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O143" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,7 +7692,7 @@
         <v>39</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>2</v>
@@ -7647,13 +7714,13 @@
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N144" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="O144" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="O144" s="0" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,7 +7728,7 @@
         <v>39</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>0</v>
@@ -7683,13 +7750,13 @@
       </c>
       <c r="K145" s="4"/>
       <c r="M145" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="N145" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="N145" s="0" t="s">
+      <c r="O145" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="O145" s="0" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,7 +7764,7 @@
         <v>39</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>0</v>
@@ -7719,13 +7786,13 @@
       </c>
       <c r="K146" s="4"/>
       <c r="M146" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N146" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="O146" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="O146" s="0" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7733,7 +7800,7 @@
         <v>39</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
@@ -7755,13 +7822,13 @@
       </c>
       <c r="K147" s="4"/>
       <c r="M147" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="N147" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="N147" s="0" t="s">
+      <c r="O147" s="0" t="s">
         <v>474</v>
-      </c>
-      <c r="O147" s="0" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,7 +7836,7 @@
         <v>39</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>1</v>
@@ -7791,13 +7858,13 @@
       </c>
       <c r="K148" s="4"/>
       <c r="M148" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N148" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="O148" s="0" t="s">
         <v>474</v>
-      </c>
-      <c r="O148" s="0" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,7 +7872,7 @@
         <v>39</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
@@ -7828,13 +7895,13 @@
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="N149" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="N149" s="0" t="s">
+      <c r="O149" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="O149" s="0" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7842,7 +7909,7 @@
         <v>39</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
@@ -7865,13 +7932,13 @@
       <c r="K150" s="4"/>
       <c r="L150" s="1"/>
       <c r="M150" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N150" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="O150" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="O150" s="0" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,7 +7946,7 @@
         <v>39</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
@@ -7902,13 +7969,13 @@
       <c r="K151" s="4"/>
       <c r="L151" s="3"/>
       <c r="M151" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="N151" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="N151" s="0" t="s">
+      <c r="O151" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O151" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,7 +7983,7 @@
         <v>39</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
@@ -7939,13 +8006,13 @@
       <c r="K152" s="4"/>
       <c r="L152" s="3"/>
       <c r="M152" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N152" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="O152" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O152" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7953,7 +8020,7 @@
         <v>39</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
@@ -7976,13 +8043,13 @@
       <c r="K153" s="4"/>
       <c r="L153" s="3"/>
       <c r="M153" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N153" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="O153" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O153" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,7 +8057,7 @@
         <v>39</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
@@ -8013,13 +8080,13 @@
       <c r="K154" s="4"/>
       <c r="L154" s="3"/>
       <c r="M154" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N154" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="O154" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O154" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8027,7 +8094,7 @@
         <v>39</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
@@ -8050,13 +8117,13 @@
       <c r="K155" s="4"/>
       <c r="L155" s="3"/>
       <c r="M155" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N155" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="O155" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O155" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8064,7 +8131,7 @@
         <v>39</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
@@ -8087,13 +8154,13 @@
       <c r="K156" s="4"/>
       <c r="L156" s="3"/>
       <c r="M156" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N156" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="O156" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O156" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8101,7 +8168,7 @@
         <v>39</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
@@ -8124,13 +8191,13 @@
       <c r="K157" s="4"/>
       <c r="L157" s="3"/>
       <c r="M157" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N157" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="O157" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O157" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,7 +8205,7 @@
         <v>39</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
@@ -8161,13 +8228,13 @@
       <c r="K158" s="4"/>
       <c r="L158" s="3"/>
       <c r="M158" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N158" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="O158" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="O158" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,7 +8242,7 @@
         <v>39</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>0</v>
@@ -8198,13 +8265,13 @@
       <c r="K159" s="4"/>
       <c r="L159" s="1"/>
       <c r="M159" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="N159" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="N159" s="0" t="s">
+      <c r="O159" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="O159" s="0" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8212,7 +8279,7 @@
         <v>39</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>0</v>
@@ -8234,13 +8301,13 @@
       </c>
       <c r="L160" s="1"/>
       <c r="M160" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="N160" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="O160" s="0" t="s">
         <v>498</v>
-      </c>
-      <c r="N160" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="O160" s="0" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8248,7 +8315,7 @@
         <v>39</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>2</v>
@@ -8270,13 +8337,13 @@
       </c>
       <c r="L161" s="1"/>
       <c r="M161" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="N161" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="N161" s="0" t="s">
+      <c r="O161" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O161" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8284,7 +8351,7 @@
         <v>39</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>2</v>
@@ -8306,13 +8373,13 @@
       </c>
       <c r="L162" s="1"/>
       <c r="M162" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N162" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="O162" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O162" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8320,7 +8387,7 @@
         <v>39</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>2</v>
@@ -8342,13 +8409,13 @@
       </c>
       <c r="L163" s="1"/>
       <c r="M163" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N163" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="O163" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O163" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8356,7 +8423,7 @@
         <v>39</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>2</v>
@@ -8378,13 +8445,13 @@
       </c>
       <c r="L164" s="1"/>
       <c r="M164" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N164" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="O164" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O164" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,7 +8459,7 @@
         <v>39</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>2</v>
@@ -8414,13 +8481,13 @@
       </c>
       <c r="L165" s="1"/>
       <c r="M165" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N165" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="O165" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O165" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8428,7 +8495,7 @@
         <v>39</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>2</v>
@@ -8450,13 +8517,13 @@
       </c>
       <c r="L166" s="1"/>
       <c r="M166" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N166" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="O166" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O166" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8464,7 +8531,7 @@
         <v>39</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>2</v>
@@ -8486,13 +8553,13 @@
       </c>
       <c r="L167" s="1"/>
       <c r="M167" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N167" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="O167" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O167" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8500,7 +8567,7 @@
         <v>39</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>2</v>
@@ -8522,13 +8589,13 @@
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N168" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="O168" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="O168" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,10 +8603,10 @@
         <v>39</v>
       </c>
       <c r="B169" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C169" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>0</v>
@@ -8560,13 +8627,13 @@
         <v>3</v>
       </c>
       <c r="M169" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="N169" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="N169" s="0" t="s">
+      <c r="O169" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="O169" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8574,10 +8641,10 @@
         <v>39</v>
       </c>
       <c r="B170" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C170" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>0</v>
@@ -8598,13 +8665,13 @@
         <v>3</v>
       </c>
       <c r="M170" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N170" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="O170" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="O170" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8612,10 +8679,10 @@
         <v>39</v>
       </c>
       <c r="B171" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C171" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>0</v>
@@ -8636,13 +8703,13 @@
         <v>3</v>
       </c>
       <c r="M171" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N171" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="O171" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="O171" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,10 +8717,10 @@
         <v>39</v>
       </c>
       <c r="B172" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>0</v>
@@ -8674,13 +8741,13 @@
         <v>3</v>
       </c>
       <c r="M172" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N172" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="O172" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="O172" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8688,10 +8755,10 @@
         <v>39</v>
       </c>
       <c r="B173" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C173" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="C173" s="0" t="s">
-        <v>520</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>0</v>
@@ -8712,13 +8779,13 @@
         <v>4</v>
       </c>
       <c r="M173" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="N173" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="N173" s="0" t="s">
+      <c r="O173" s="0" t="s">
         <v>522</v>
-      </c>
-      <c r="O173" s="0" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8726,10 +8793,10 @@
         <v>39</v>
       </c>
       <c r="B174" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C174" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>520</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>0</v>
@@ -8750,13 +8817,13 @@
         <v>4</v>
       </c>
       <c r="M174" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N174" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="O174" s="0" t="s">
         <v>522</v>
-      </c>
-      <c r="O174" s="0" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,34 +8831,34 @@
         <v>39</v>
       </c>
       <c r="B175" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="D175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G175" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M175" s="0" t="s">
+      <c r="N175" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="N175" s="0" t="s">
+      <c r="O175" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="O175" s="0" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,7 +8866,7 @@
         <v>39</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>0</v>
@@ -8820,13 +8887,13 @@
         <v>2</v>
       </c>
       <c r="M176" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N176" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O176" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="O176" s="0" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8834,7 +8901,7 @@
         <v>39</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>0</v>
@@ -8855,13 +8922,13 @@
         <v>2</v>
       </c>
       <c r="M177" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N177" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O177" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="O177" s="0" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8869,7 +8936,7 @@
         <v>39</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>0</v>
@@ -8890,13 +8957,13 @@
         <v>2</v>
       </c>
       <c r="M178" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N178" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="O178" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="O178" s="0" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8904,7 +8971,7 @@
         <v>39</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>0</v>
@@ -8926,13 +8993,13 @@
       </c>
       <c r="K179" s="1"/>
       <c r="M179" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="N179" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="N179" s="0" t="s">
+      <c r="O179" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="O179" s="0" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,7 +9007,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>1</v>
@@ -8963,13 +9030,13 @@
       <c r="K180" s="1"/>
       <c r="L180" s="3"/>
       <c r="M180" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="N180" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="N180" s="0" t="s">
+      <c r="O180" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="O180" s="0" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8977,7 +9044,7 @@
         <v>39</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>1</v>
@@ -9000,13 +9067,13 @@
       <c r="K181" s="1"/>
       <c r="L181" s="3"/>
       <c r="M181" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N181" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O181" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="O181" s="0" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,7 +9081,7 @@
         <v>39</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>1</v>
@@ -9037,13 +9104,13 @@
       <c r="K182" s="1"/>
       <c r="L182" s="3"/>
       <c r="M182" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N182" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O182" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="O182" s="0" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9051,7 +9118,7 @@
         <v>39</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>1</v>
@@ -9074,13 +9141,13 @@
       <c r="K183" s="1"/>
       <c r="L183" s="3"/>
       <c r="M183" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N183" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O183" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="O183" s="0" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,7 +9155,7 @@
         <v>39</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>1</v>
@@ -9111,13 +9178,13 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="N184" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="N184" s="0" t="s">
+      <c r="O184" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="O184" s="0" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9125,7 +9192,7 @@
         <v>39</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>1</v>
@@ -9148,13 +9215,13 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N185" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="O185" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="O185" s="0" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,7 +9229,7 @@
         <v>39</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
@@ -9185,13 +9252,13 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N186" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="O186" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="O186" s="0" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9199,7 +9266,7 @@
         <v>39</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>1</v>
@@ -9222,13 +9289,13 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N187" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="O187" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="O187" s="0" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,7 +9303,7 @@
         <v>39</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>1</v>
@@ -9259,13 +9326,13 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="N188" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="N188" s="0" t="s">
-        <v>552</v>
-      </c>
       <c r="O188" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9273,7 +9340,7 @@
         <v>39</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>1</v>
@@ -9296,13 +9363,13 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N189" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O189" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9310,7 +9377,7 @@
         <v>39</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>1</v>
@@ -9333,13 +9400,13 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N190" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O190" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,7 +9414,7 @@
         <v>39</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>1</v>
@@ -9370,13 +9437,13 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N191" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O191" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9384,34 +9451,34 @@
         <v>39</v>
       </c>
       <c r="B192" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="D192" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E192" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H192" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M192" s="0" t="s">
+      <c r="N192" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="N192" s="0" t="s">
+      <c r="O192" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="O192" s="0" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9419,7 +9486,7 @@
         <v>39</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>2</v>
@@ -9440,13 +9507,13 @@
         <v>2</v>
       </c>
       <c r="M193" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N193" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="O193" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="O193" s="0" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9454,7 +9521,7 @@
         <v>39</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>2</v>
@@ -9476,13 +9543,13 @@
       </c>
       <c r="L194" s="1"/>
       <c r="M194" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="N194" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="N194" s="0" t="s">
+      <c r="O194" s="0" t="s">
         <v>563</v>
-      </c>
-      <c r="O194" s="0" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9490,7 +9557,7 @@
         <v>39</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>2</v>
@@ -9512,13 +9579,431 @@
       </c>
       <c r="L195" s="1"/>
       <c r="M195" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="N195" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="O195" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="N195" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="O195" s="0" t="s">
-        <v>564</v>
+      <c r="C196" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="N196" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="O196" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="N197" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O197" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="N198" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O198" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="N199" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O199" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="N200" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O200" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="N201" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O201" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="N202" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O202" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="N203" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O203" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="N204" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O204" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="N205" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="O205" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="N206" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="O206" s="0" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
